--- a/out_test/tables/FconstALL/FconstALL_30.xlsx
+++ b/out_test/tables/FconstALL/FconstALL_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="59">
   <si>
     <t>RWS</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>Teta_avg</t>
+  </si>
+  <si>
+    <t>Avg_NI_loose</t>
+  </si>
+  <si>
+    <t>Sigma_NI_loose</t>
+  </si>
+  <si>
+    <t>Avg_Num_loose</t>
+  </si>
+  <si>
+    <t>Sigma_Num_loose</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -542,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EO3"/>
+  <dimension ref="A1:GC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -553,15 +565,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:145">
+    <row r="1" spans="1:185">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -573,22 +585,20 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
@@ -596,12 +606,12 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
+      <c r="AG1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -612,10 +622,10 @@
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
-      <c r="AU1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
@@ -625,22 +635,20 @@
       <c r="BC1" s="1"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
-      <c r="BF1" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
+      <c r="BK1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="BL1" s="1"/>
       <c r="BM1" s="1"/>
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -649,11 +657,11 @@
       <c r="BW1" s="1"/>
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
+      <c r="BZ1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="CA1" s="1"/>
-      <c r="CB1" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="CB1" s="1"/>
       <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
       <c r="CE1" s="1"/>
@@ -664,11 +672,11 @@
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
-      <c r="CM1" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="CM1" s="1"/>
       <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
+      <c r="CO1" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="CP1" s="1"/>
       <c r="CQ1" s="1"/>
       <c r="CR1" s="1"/>
@@ -677,22 +685,20 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="CX1" s="1"/>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
       <c r="DB1" s="1"/>
       <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
+      <c r="DD1" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="DE1" s="1"/>
       <c r="DF1" s="1"/>
       <c r="DG1" s="1"/>
       <c r="DH1" s="1"/>
-      <c r="DI1" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="DI1" s="1"/>
       <c r="DJ1" s="1"/>
       <c r="DK1" s="1"/>
       <c r="DL1" s="1"/>
@@ -702,7 +708,9 @@
       <c r="DP1" s="1"/>
       <c r="DQ1" s="1"/>
       <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
+      <c r="DS1" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="DT1" s="1"/>
       <c r="DU1" s="1"/>
       <c r="DV1" s="1"/>
@@ -717,7 +725,9 @@
       <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
+      <c r="EH1" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="EI1" s="1"/>
       <c r="EJ1" s="1"/>
       <c r="EK1" s="1"/>
@@ -725,8 +735,50 @@
       <c r="EM1" s="1"/>
       <c r="EN1" s="1"/>
       <c r="EO1" s="1"/>
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
+      <c r="ER1" s="1"/>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1"/>
+      <c r="EV1" s="1"/>
+      <c r="EW1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="EX1" s="1"/>
+      <c r="EY1" s="1"/>
+      <c r="EZ1" s="1"/>
+      <c r="FA1" s="1"/>
+      <c r="FB1" s="1"/>
+      <c r="FC1" s="1"/>
+      <c r="FD1" s="1"/>
+      <c r="FE1" s="1"/>
+      <c r="FF1" s="1"/>
+      <c r="FG1" s="1"/>
+      <c r="FH1" s="1"/>
+      <c r="FI1" s="1"/>
+      <c r="FJ1" s="1"/>
+      <c r="FK1" s="1"/>
+      <c r="FL1" s="1"/>
+      <c r="FM1" s="1"/>
+      <c r="FN1" s="1"/>
+      <c r="FO1" s="1"/>
+      <c r="FP1" s="1"/>
+      <c r="FQ1" s="1"/>
+      <c r="FR1" s="1"/>
+      <c r="FS1" s="1"/>
+      <c r="FT1" s="1"/>
+      <c r="FU1" s="1"/>
+      <c r="FV1" s="1"/>
+      <c r="FW1" s="1"/>
+      <c r="FX1" s="1"/>
+      <c r="FY1" s="1"/>
+      <c r="FZ1" s="1"/>
+      <c r="GA1" s="1"/>
+      <c r="GB1" s="1"/>
+      <c r="GC1" s="1"/>
     </row>
-    <row r="2" spans="1:145">
+    <row r="2" spans="1:185">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -763,403 +815,523 @@
         <v>12</v>
       </c>
       <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>7</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>8</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>9</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>10</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" t="s">
         <v>11</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AB2" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG2" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AH2" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AI2" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AJ2" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AK2" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AL2" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AM2" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AN2" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AO2" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AP2" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AQ2" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AR2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV2" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AW2" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AX2" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AY2" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AZ2" t="s">
         <v>6</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="BA2" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="BB2" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="BC2" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BD2" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BE2" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BF2" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BG2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK2" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BL2" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BM2" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BN2" t="s">
         <v>5</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BO2" t="s">
         <v>6</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BP2" t="s">
         <v>7</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BQ2" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BR2" t="s">
         <v>9</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BS2" t="s">
         <v>10</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BT2" t="s">
         <v>11</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BU2" t="s">
         <v>12</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BV2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BZ2" t="s">
         <v>2</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="CA2" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="CB2" t="s">
         <v>4</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="CC2" t="s">
         <v>5</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="CD2" t="s">
         <v>6</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="CE2" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="CF2" t="s">
         <v>8</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="CG2" t="s">
         <v>9</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>10</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CJ2" t="s">
         <v>12</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CK2" t="s">
+        <v>13</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CO2" t="s">
         <v>2</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CP2" t="s">
         <v>3</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CQ2" t="s">
         <v>4</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CR2" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CS2" t="s">
         <v>6</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CT2" t="s">
         <v>7</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CU2" t="s">
         <v>8</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CV2" t="s">
         <v>9</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CW2" t="s">
         <v>10</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CX2" t="s">
         <v>11</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CY2" t="s">
         <v>12</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CZ2" t="s">
+        <v>13</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DD2" t="s">
         <v>2</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="DE2" t="s">
         <v>3</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="DF2" t="s">
         <v>4</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="DG2" t="s">
         <v>5</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="DH2" t="s">
         <v>6</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="DI2" t="s">
         <v>7</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="DJ2" t="s">
         <v>8</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="DK2" t="s">
         <v>9</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="DL2" t="s">
         <v>10</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="DM2" t="s">
         <v>11</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="DN2" t="s">
         <v>12</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="DO2" t="s">
+        <v>13</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DS2" t="s">
         <v>2</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="DT2" t="s">
         <v>3</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DU2" t="s">
         <v>4</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DV2" t="s">
         <v>5</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DW2" t="s">
         <v>6</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DX2" t="s">
         <v>7</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DY2" t="s">
         <v>8</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>9</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>10</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>11</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>3</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>4</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>6</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>7</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>8</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>9</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>10</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>11</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>12</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>23</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>24</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>25</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>26</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>27</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>28</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>29</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>4</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>30</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>6</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>31</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>32</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>34</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>35</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>37</v>
       </c>
       <c r="DZ2" t="s">
         <v>9</v>
       </c>
       <c r="EA2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="EB2" t="s">
         <v>11</v>
       </c>
       <c r="EC2" t="s">
+        <v>12</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>13</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>14</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>15</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>3</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>4</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>9</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>10</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>12</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>13</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>14</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>15</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>27</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>28</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>29</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>30</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>31</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>4</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>34</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>35</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>37</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="FK2" t="s">
         <v>39</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="FL2" t="s">
         <v>40</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="FM2" t="s">
         <v>41</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="FN2" t="s">
+        <v>9</v>
+      </c>
+      <c r="FO2" t="s">
         <v>42</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="FP2" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ2" t="s">
         <v>43</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="FR2" t="s">
         <v>44</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="FS2" t="s">
         <v>45</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="FT2" t="s">
         <v>46</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FU2" t="s">
         <v>47</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FV2" t="s">
         <v>48</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FW2" t="s">
         <v>49</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FX2" t="s">
         <v>50</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FY2" t="s">
         <v>51</v>
       </c>
+      <c r="FZ2" t="s">
+        <v>52</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>53</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:145">
+    <row r="3" spans="1:185">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1167,427 +1339,547 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>0.5333333333333333</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>0.6490196078431369</v>
+        <v>0.6387387387387385</v>
       </c>
       <c r="I3">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>0.4666666666666667</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3">
+        <v>0.3612612612612615</v>
+      </c>
+      <c r="N3">
+        <v>18.5</v>
+      </c>
+      <c r="O3">
+        <v>10.75290658380328</v>
+      </c>
+      <c r="P3">
+        <v>19.5</v>
+      </c>
+      <c r="Q3">
+        <v>10.75290658380328</v>
+      </c>
+      <c r="R3">
+        <v>46</v>
+      </c>
+      <c r="S3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="T3">
+        <v>29</v>
+      </c>
+      <c r="U3">
+        <v>0.8</v>
+      </c>
+      <c r="V3">
+        <v>17</v>
+      </c>
+      <c r="W3">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="X3">
+        <v>0.2</v>
+      </c>
+      <c r="Y3">
+        <v>17</v>
+      </c>
+      <c r="Z3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AA3">
+        <v>29</v>
+      </c>
+      <c r="AB3">
+        <v>0.3555555555555557</v>
+      </c>
+      <c r="AC3">
+        <v>23.5</v>
+      </c>
+      <c r="AD3">
+        <v>12.48499098918377</v>
+      </c>
+      <c r="AE3">
+        <v>22.5</v>
+      </c>
+      <c r="AF3">
+        <v>12.48499098918377</v>
+      </c>
+      <c r="AG3">
+        <v>89</v>
+      </c>
+      <c r="AH3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AI3">
+        <v>15</v>
+      </c>
+      <c r="AJ3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="AK3">
+        <v>25</v>
+      </c>
+      <c r="AL3">
+        <v>0.6428030303030304</v>
+      </c>
+      <c r="AM3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="AN3">
+        <v>25</v>
+      </c>
+      <c r="AO3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AP3">
+        <v>15</v>
+      </c>
+      <c r="AQ3">
+        <v>0.3571969696969697</v>
+      </c>
+      <c r="AR3">
+        <v>44.5</v>
+      </c>
+      <c r="AS3">
+        <v>25.18680209951236</v>
+      </c>
+      <c r="AT3">
+        <v>44.5</v>
+      </c>
+      <c r="AU3">
+        <v>25.18680209951236</v>
+      </c>
+      <c r="AV3">
+        <v>89</v>
+      </c>
+      <c r="AW3">
+        <v>0.5</v>
+      </c>
+      <c r="AX3">
+        <v>81</v>
+      </c>
+      <c r="AY3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AZ3">
+        <v>16</v>
+      </c>
+      <c r="BA3">
+        <v>0.628787878787879</v>
+      </c>
+      <c r="BB3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="BC3">
+        <v>16</v>
+      </c>
+      <c r="BD3">
+        <v>0.5</v>
+      </c>
+      <c r="BE3">
+        <v>81</v>
+      </c>
+      <c r="BF3">
+        <v>0.371212121212121</v>
+      </c>
+      <c r="BG3">
+        <v>44.5</v>
+      </c>
+      <c r="BH3">
+        <v>25.18680209951236</v>
+      </c>
+      <c r="BI3">
+        <v>44.5</v>
+      </c>
+      <c r="BJ3">
+        <v>25.18680209951236</v>
+      </c>
+      <c r="BK3">
+        <v>32</v>
+      </c>
+      <c r="BL3">
+        <v>0.5</v>
+      </c>
+      <c r="BM3">
+        <v>5</v>
+      </c>
+      <c r="BN3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="BO3">
+        <v>6</v>
+      </c>
+      <c r="BP3">
+        <v>0.6225806451612902</v>
+      </c>
+      <c r="BQ3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BR3">
+        <v>6</v>
+      </c>
+      <c r="BS3">
+        <v>0.5</v>
+      </c>
+      <c r="BT3">
+        <v>5</v>
+      </c>
+      <c r="BU3">
+        <v>0.3774193548387098</v>
+      </c>
+      <c r="BV3">
+        <v>15.5</v>
+      </c>
+      <c r="BW3">
+        <v>9.020809276334358</v>
+      </c>
+      <c r="BX3">
+        <v>16.5</v>
+      </c>
+      <c r="BY3">
+        <v>9.020809276334358</v>
+      </c>
+      <c r="BZ3">
+        <v>33</v>
+      </c>
+      <c r="CA3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="CB3">
+        <v>6</v>
+      </c>
+      <c r="CC3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="CD3">
+        <v>8</v>
+      </c>
+      <c r="CE3">
+        <v>0.6385416666666663</v>
+      </c>
+      <c r="CF3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="CG3">
+        <v>8</v>
+      </c>
+      <c r="CH3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="CI3">
+        <v>6</v>
+      </c>
+      <c r="CJ3">
+        <v>0.3614583333333335</v>
+      </c>
+      <c r="CK3">
+        <v>19</v>
+      </c>
+      <c r="CL3">
+        <v>7.577378614446204</v>
+      </c>
+      <c r="CM3">
+        <v>14</v>
+      </c>
+      <c r="CN3">
+        <v>7.577378614446204</v>
+      </c>
+      <c r="CO3">
+        <v>35</v>
+      </c>
+      <c r="CP3">
+        <v>0.5</v>
+      </c>
+      <c r="CQ3">
+        <v>28</v>
+      </c>
+      <c r="CR3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="CS3">
+        <v>22</v>
+      </c>
+      <c r="CT3">
+        <v>0.6490196078431372</v>
+      </c>
+      <c r="CU3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="CV3">
+        <v>22</v>
+      </c>
+      <c r="CW3">
+        <v>0.5</v>
+      </c>
+      <c r="CX3">
+        <v>28</v>
+      </c>
+      <c r="CY3">
         <v>0.3509803921568628</v>
       </c>
-      <c r="N3">
+      <c r="CZ3">
+        <v>20</v>
+      </c>
+      <c r="DA3">
+        <v>8.154753215150047</v>
+      </c>
+      <c r="DB3">
+        <v>15</v>
+      </c>
+      <c r="DC3">
+        <v>8.154753215150047</v>
+      </c>
+      <c r="DD3">
+        <v>34</v>
+      </c>
+      <c r="DE3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="DF3">
         <v>26</v>
       </c>
-      <c r="O3">
+      <c r="DG3">
+        <v>0.8</v>
+      </c>
+      <c r="DH3">
+        <v>7</v>
+      </c>
+      <c r="DI3">
+        <v>0.6505050505050506</v>
+      </c>
+      <c r="DJ3">
+        <v>0.2</v>
+      </c>
+      <c r="DK3">
+        <v>7</v>
+      </c>
+      <c r="DL3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="DM3">
+        <v>26</v>
+      </c>
+      <c r="DN3">
+        <v>0.3494949494949496</v>
+      </c>
+      <c r="DO3">
+        <v>16.5</v>
+      </c>
+      <c r="DP3">
+        <v>9.598176910226233</v>
+      </c>
+      <c r="DQ3">
+        <v>17.5</v>
+      </c>
+      <c r="DR3">
+        <v>9.598176910226233</v>
+      </c>
+      <c r="DS3">
+        <v>25</v>
+      </c>
+      <c r="DT3">
         <v>0.5</v>
       </c>
-      <c r="P3">
-        <v>19</v>
-      </c>
-      <c r="Q3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="R3">
-        <v>9</v>
-      </c>
-      <c r="S3">
-        <v>0.6319999999999998</v>
-      </c>
-      <c r="T3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="U3">
-        <v>9</v>
-      </c>
-      <c r="V3">
+      <c r="DU3">
+        <v>12</v>
+      </c>
+      <c r="DV3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="DW3">
+        <v>4</v>
+      </c>
+      <c r="DX3">
+        <v>0.6402777777777778</v>
+      </c>
+      <c r="DY3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="DZ3">
+        <v>4</v>
+      </c>
+      <c r="EA3">
         <v>0.5</v>
       </c>
-      <c r="W3">
-        <v>19</v>
-      </c>
-      <c r="X3">
-        <v>0.368</v>
-      </c>
-      <c r="Y3">
-        <v>59</v>
-      </c>
-      <c r="Z3">
+      <c r="EB3">
+        <v>12</v>
+      </c>
+      <c r="EC3">
+        <v>0.3597222222222222</v>
+      </c>
+      <c r="ED3">
+        <v>13</v>
+      </c>
+      <c r="EE3">
+        <v>6.422616289332564</v>
+      </c>
+      <c r="EF3">
+        <v>12</v>
+      </c>
+      <c r="EG3">
+        <v>6.422616289332564</v>
+      </c>
+      <c r="EH3">
+        <v>60</v>
+      </c>
+      <c r="EI3">
         <v>0.5</v>
       </c>
-      <c r="AA3">
-        <v>39</v>
-      </c>
-      <c r="AB3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="AC3">
-        <v>30</v>
-      </c>
-      <c r="AD3">
-        <v>0.6396551724137933</v>
-      </c>
-      <c r="AE3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="AF3">
-        <v>30</v>
-      </c>
-      <c r="AG3">
+      <c r="EJ3">
+        <v>11</v>
+      </c>
+      <c r="EK3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="EL3">
+        <v>10</v>
+      </c>
+      <c r="EM3">
+        <v>0.6282485875706215</v>
+      </c>
+      <c r="EN3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="EO3">
+        <v>10</v>
+      </c>
+      <c r="EP3">
         <v>0.5</v>
       </c>
-      <c r="AH3">
-        <v>39</v>
-      </c>
-      <c r="AI3">
-        <v>0.3603448275862068</v>
-      </c>
-      <c r="AJ3">
-        <v>28</v>
-      </c>
-      <c r="AK3">
+      <c r="EQ3">
+        <v>11</v>
+      </c>
+      <c r="ER3">
+        <v>0.3717514124293785</v>
+      </c>
+      <c r="ES3">
+        <v>50</v>
+      </c>
+      <c r="ET3">
+        <v>5.267826876426369</v>
+      </c>
+      <c r="EU3">
+        <v>10</v>
+      </c>
+      <c r="EV3">
+        <v>5.267826876426369</v>
+      </c>
+      <c r="EW3">
+        <v>1</v>
+      </c>
+      <c r="EX3">
+        <v>10</v>
+      </c>
+      <c r="EY3">
+        <v>25</v>
+      </c>
+      <c r="EZ3">
+        <v>89</v>
+      </c>
+      <c r="FA3">
+        <v>48.1</v>
+      </c>
+      <c r="FB3">
+        <v>22.3268896176785</v>
+      </c>
+      <c r="FC3">
         <v>0.5</v>
       </c>
-      <c r="AL3">
-        <v>20</v>
-      </c>
-      <c r="AM3">
+      <c r="FD3">
+        <v>81</v>
+      </c>
+      <c r="FE3">
         <v>0.8</v>
       </c>
-      <c r="AN3">
-        <v>26</v>
-      </c>
-      <c r="AO3">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="AP3">
+      <c r="FF3">
+        <v>17</v>
+      </c>
+      <c r="FG3">
+        <v>0.5166666666666666</v>
+      </c>
+      <c r="FH3">
+        <v>0.7533333333333333</v>
+      </c>
+      <c r="FI3">
+        <v>0.6383947427798635</v>
+      </c>
+      <c r="FJ3">
+        <v>0.01666666666666666</v>
+      </c>
+      <c r="FK3">
+        <v>0.02666666666666671</v>
+      </c>
+      <c r="FL3">
+        <v>0.008744066132873943</v>
+      </c>
+      <c r="FM3">
         <v>0.2</v>
       </c>
-      <c r="AQ3">
-        <v>26</v>
-      </c>
-      <c r="AR3">
+      <c r="FN3">
+        <v>17</v>
+      </c>
+      <c r="FO3">
         <v>0.5</v>
       </c>
-      <c r="AS3">
-        <v>20</v>
-      </c>
-      <c r="AT3">
-        <v>0.3555555555555557</v>
-      </c>
-      <c r="AU3">
-        <v>51</v>
-      </c>
-      <c r="AV3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="AW3">
-        <v>4</v>
-      </c>
-      <c r="AX3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="AY3">
-        <v>35</v>
-      </c>
-      <c r="AZ3">
-        <v>0.6386666666666667</v>
-      </c>
-      <c r="BA3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="BB3">
-        <v>35</v>
-      </c>
-      <c r="BC3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="BD3">
-        <v>4</v>
-      </c>
-      <c r="BE3">
-        <v>0.3613333333333335</v>
-      </c>
-      <c r="BF3">
-        <v>40</v>
-      </c>
-      <c r="BG3">
-        <v>0.5</v>
-      </c>
-      <c r="BH3">
-        <v>13</v>
-      </c>
-      <c r="BI3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="BJ3">
-        <v>6</v>
-      </c>
-      <c r="BK3">
-        <v>0.6384615384615384</v>
-      </c>
-      <c r="BL3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="BM3">
-        <v>6</v>
-      </c>
-      <c r="BN3">
-        <v>0.5</v>
-      </c>
-      <c r="BO3">
-        <v>13</v>
-      </c>
-      <c r="BP3">
-        <v>0.3615384615384617</v>
-      </c>
-      <c r="BQ3">
-        <v>53</v>
-      </c>
-      <c r="BR3">
-        <v>0.5</v>
-      </c>
-      <c r="BS3">
-        <v>25</v>
-      </c>
-      <c r="BT3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0.6467948717948721</v>
-      </c>
-      <c r="BW3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
-        <v>0.5</v>
-      </c>
-      <c r="BZ3">
-        <v>25</v>
-      </c>
-      <c r="CA3">
-        <v>0.3532051282051285</v>
-      </c>
-      <c r="CB3">
-        <v>34</v>
-      </c>
-      <c r="CC3">
-        <v>0.5</v>
-      </c>
-      <c r="CD3">
-        <v>2</v>
-      </c>
-      <c r="CE3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="CF3">
-        <v>14</v>
-      </c>
-      <c r="CG3">
-        <v>0.6353535353535351</v>
-      </c>
-      <c r="CH3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="CI3">
-        <v>14</v>
-      </c>
-      <c r="CJ3">
-        <v>0.5</v>
-      </c>
-      <c r="CK3">
-        <v>2</v>
-      </c>
-      <c r="CL3">
-        <v>0.3646464646464649</v>
-      </c>
-      <c r="CM3">
-        <v>59</v>
-      </c>
-      <c r="CN3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="CO3">
-        <v>48</v>
-      </c>
-      <c r="CP3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="CQ3">
-        <v>3</v>
-      </c>
-      <c r="CR3">
-        <v>0.638505747126437</v>
-      </c>
-      <c r="CS3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="CT3">
-        <v>3</v>
-      </c>
-      <c r="CU3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="CV3">
-        <v>48</v>
-      </c>
-      <c r="CW3">
-        <v>0.3614942528735633</v>
-      </c>
-      <c r="CX3">
-        <v>88</v>
-      </c>
-      <c r="CY3">
-        <v>0.5</v>
-      </c>
-      <c r="CZ3">
-        <v>38</v>
-      </c>
-      <c r="DA3">
-        <v>0.8</v>
-      </c>
-      <c r="DB3">
-        <v>79</v>
-      </c>
-      <c r="DC3">
-        <v>0.6429118773946362</v>
-      </c>
-      <c r="DD3">
-        <v>0.2</v>
-      </c>
-      <c r="DE3">
-        <v>79</v>
-      </c>
-      <c r="DF3">
-        <v>0.5</v>
-      </c>
-      <c r="DG3">
-        <v>38</v>
-      </c>
-      <c r="DH3">
-        <v>0.3570881226053638</v>
-      </c>
-      <c r="DI3">
-        <v>1</v>
-      </c>
-      <c r="DJ3">
-        <v>10</v>
-      </c>
-      <c r="DK3">
-        <v>26</v>
-      </c>
-      <c r="DL3">
-        <v>88</v>
-      </c>
-      <c r="DM3">
-        <v>47.3</v>
-      </c>
-      <c r="DN3">
-        <v>17.84404662625605</v>
-      </c>
-      <c r="DO3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="DP3">
-        <v>48</v>
-      </c>
-      <c r="DQ3">
-        <v>0.8</v>
-      </c>
-      <c r="DR3">
-        <v>26</v>
-      </c>
-      <c r="DS3">
-        <v>0.4933333333333333</v>
-      </c>
-      <c r="DT3">
-        <v>0.7633333333333334</v>
-      </c>
-      <c r="DU3">
-        <v>0.640581346149906</v>
-      </c>
-      <c r="DV3">
-        <v>0.02494438257849294</v>
-      </c>
-      <c r="DW3">
-        <v>0.02333333333333337</v>
-      </c>
-      <c r="DX3">
-        <v>0.004944310511912471</v>
-      </c>
-      <c r="DY3">
-        <v>0.2</v>
-      </c>
-      <c r="DZ3">
-        <v>26</v>
-      </c>
-      <c r="EA3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="EB3">
-        <v>48</v>
-      </c>
-      <c r="EC3">
-        <v>0.2366666666666667</v>
-      </c>
-      <c r="ED3">
-        <v>0.5066666666666666</v>
-      </c>
-      <c r="EE3">
-        <v>0.3594186538500941</v>
-      </c>
-      <c r="EF3">
-        <v>0.02333333333333333</v>
-      </c>
-      <c r="EG3">
-        <v>0.02494438257849294</v>
-      </c>
-      <c r="EH3">
-        <v>0.004944310511912416</v>
+      <c r="FP3">
+        <v>81</v>
+      </c>
+      <c r="FQ3">
+        <v>0.2466666666666667</v>
+      </c>
+      <c r="FR3">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="FS3">
+        <v>0.3616052572201364</v>
+      </c>
+      <c r="FT3">
+        <v>0.02666666666666666</v>
+      </c>
+      <c r="FU3">
+        <v>0.01666666666666666</v>
+      </c>
+      <c r="FV3">
+        <v>0.008744066132873905</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="N1:X1"/>
-    <mergeCell ref="Y1:AI1"/>
-    <mergeCell ref="AJ1:AT1"/>
-    <mergeCell ref="AU1:BE1"/>
-    <mergeCell ref="BF1:BP1"/>
-    <mergeCell ref="BQ1:CA1"/>
-    <mergeCell ref="CB1:CL1"/>
-    <mergeCell ref="CM1:CW1"/>
-    <mergeCell ref="CX1:DH1"/>
-    <mergeCell ref="DI1:EO1"/>
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="R1:AF1"/>
+    <mergeCell ref="AG1:AU1"/>
+    <mergeCell ref="AV1:BJ1"/>
+    <mergeCell ref="BK1:BY1"/>
+    <mergeCell ref="BZ1:CN1"/>
+    <mergeCell ref="CO1:DC1"/>
+    <mergeCell ref="DD1:DR1"/>
+    <mergeCell ref="DS1:EG1"/>
+    <mergeCell ref="EH1:EV1"/>
+    <mergeCell ref="EW1:GC1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/FconstALL/FconstALL_30.xlsx
+++ b/out_test/tables/FconstALL/FconstALL_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="68">
   <si>
     <t>RWS</t>
   </si>
@@ -65,6 +65,33 @@
   </si>
   <si>
     <t>Sigma_Num_loose</t>
+  </si>
+  <si>
+    <t>I_start</t>
+  </si>
+  <si>
+    <t>GR_start</t>
+  </si>
+  <si>
+    <t>Pr_start</t>
+  </si>
+  <si>
+    <t>Pr_min</t>
+  </si>
+  <si>
+    <t>NI_Pr_min</t>
+  </si>
+  <si>
+    <t>Pr_max</t>
+  </si>
+  <si>
+    <t>NI_Pr_max</t>
+  </si>
+  <si>
+    <t>Pr_avg</t>
+  </si>
+  <si>
+    <t>NI_Pr_avg</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -554,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GC3"/>
+  <dimension ref="A1:JX3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -565,15 +592,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:185">
+    <row r="1" spans="1:284">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -589,9 +616,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -600,15 +625,15 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-      <c r="AG1" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
@@ -623,12 +648,12 @@
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
-      <c r="AV1" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
+      <c r="AY1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
@@ -640,9 +665,7 @@
       <c r="BH1" s="1"/>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
-      <c r="BK1" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
       <c r="BM1" s="1"/>
       <c r="BN1" s="1"/>
@@ -654,12 +677,12 @@
       <c r="BT1" s="1"/>
       <c r="BU1" s="1"/>
       <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
+      <c r="BW1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
-      <c r="BZ1" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
       <c r="CB1" s="1"/>
       <c r="CC1" s="1"/>
@@ -674,15 +697,15 @@
       <c r="CL1" s="1"/>
       <c r="CM1" s="1"/>
       <c r="CN1" s="1"/>
-      <c r="CO1" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="CO1" s="1"/>
       <c r="CP1" s="1"/>
       <c r="CQ1" s="1"/>
       <c r="CR1" s="1"/>
       <c r="CS1" s="1"/>
       <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
+      <c r="CU1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
       <c r="CX1" s="1"/>
@@ -691,9 +714,7 @@
       <c r="DA1" s="1"/>
       <c r="DB1" s="1"/>
       <c r="DC1" s="1"/>
-      <c r="DD1" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="DD1" s="1"/>
       <c r="DE1" s="1"/>
       <c r="DF1" s="1"/>
       <c r="DG1" s="1"/>
@@ -709,7 +730,7 @@
       <c r="DQ1" s="1"/>
       <c r="DR1" s="1"/>
       <c r="DS1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="DT1" s="1"/>
       <c r="DU1" s="1"/>
@@ -725,9 +746,7 @@
       <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
-      <c r="EH1" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="EH1" s="1"/>
       <c r="EI1" s="1"/>
       <c r="EJ1" s="1"/>
       <c r="EK1" s="1"/>
@@ -736,15 +755,15 @@
       <c r="EN1" s="1"/>
       <c r="EO1" s="1"/>
       <c r="EP1" s="1"/>
-      <c r="EQ1" s="1"/>
+      <c r="EQ1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="ER1" s="1"/>
       <c r="ES1" s="1"/>
       <c r="ET1" s="1"/>
       <c r="EU1" s="1"/>
       <c r="EV1" s="1"/>
-      <c r="EW1" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="EW1" s="1"/>
       <c r="EX1" s="1"/>
       <c r="EY1" s="1"/>
       <c r="EZ1" s="1"/>
@@ -762,7 +781,9 @@
       <c r="FL1" s="1"/>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
+      <c r="FO1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="FP1" s="1"/>
       <c r="FQ1" s="1"/>
       <c r="FR1" s="1"/>
@@ -777,8 +798,113 @@
       <c r="GA1" s="1"/>
       <c r="GB1" s="1"/>
       <c r="GC1" s="1"/>
+      <c r="GD1" s="1"/>
+      <c r="GE1" s="1"/>
+      <c r="GF1" s="1"/>
+      <c r="GG1" s="1"/>
+      <c r="GH1" s="1"/>
+      <c r="GI1" s="1"/>
+      <c r="GJ1" s="1"/>
+      <c r="GK1" s="1"/>
+      <c r="GL1" s="1"/>
+      <c r="GM1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="GN1" s="1"/>
+      <c r="GO1" s="1"/>
+      <c r="GP1" s="1"/>
+      <c r="GQ1" s="1"/>
+      <c r="GR1" s="1"/>
+      <c r="GS1" s="1"/>
+      <c r="GT1" s="1"/>
+      <c r="GU1" s="1"/>
+      <c r="GV1" s="1"/>
+      <c r="GW1" s="1"/>
+      <c r="GX1" s="1"/>
+      <c r="GY1" s="1"/>
+      <c r="GZ1" s="1"/>
+      <c r="HA1" s="1"/>
+      <c r="HB1" s="1"/>
+      <c r="HC1" s="1"/>
+      <c r="HD1" s="1"/>
+      <c r="HE1" s="1"/>
+      <c r="HF1" s="1"/>
+      <c r="HG1" s="1"/>
+      <c r="HH1" s="1"/>
+      <c r="HI1" s="1"/>
+      <c r="HJ1" s="1"/>
+      <c r="HK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="HL1" s="1"/>
+      <c r="HM1" s="1"/>
+      <c r="HN1" s="1"/>
+      <c r="HO1" s="1"/>
+      <c r="HP1" s="1"/>
+      <c r="HQ1" s="1"/>
+      <c r="HR1" s="1"/>
+      <c r="HS1" s="1"/>
+      <c r="HT1" s="1"/>
+      <c r="HU1" s="1"/>
+      <c r="HV1" s="1"/>
+      <c r="HW1" s="1"/>
+      <c r="HX1" s="1"/>
+      <c r="HY1" s="1"/>
+      <c r="HZ1" s="1"/>
+      <c r="IA1" s="1"/>
+      <c r="IB1" s="1"/>
+      <c r="IC1" s="1"/>
+      <c r="ID1" s="1"/>
+      <c r="IE1" s="1"/>
+      <c r="IF1" s="1"/>
+      <c r="IG1" s="1"/>
+      <c r="IH1" s="1"/>
+      <c r="II1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="IJ1" s="1"/>
+      <c r="IK1" s="1"/>
+      <c r="IL1" s="1"/>
+      <c r="IM1" s="1"/>
+      <c r="IN1" s="1"/>
+      <c r="IO1" s="1"/>
+      <c r="IP1" s="1"/>
+      <c r="IQ1" s="1"/>
+      <c r="IR1" s="1"/>
+      <c r="IS1" s="1"/>
+      <c r="IT1" s="1"/>
+      <c r="IU1" s="1"/>
+      <c r="IV1" s="1"/>
+      <c r="IW1" s="1"/>
+      <c r="IX1" s="1"/>
+      <c r="IY1" s="1"/>
+      <c r="IZ1" s="1"/>
+      <c r="JA1" s="1"/>
+      <c r="JB1" s="1"/>
+      <c r="JC1" s="1"/>
+      <c r="JD1" s="1"/>
+      <c r="JE1" s="1"/>
+      <c r="JF1" s="1"/>
+      <c r="JG1" s="1"/>
+      <c r="JH1" s="1"/>
+      <c r="JI1" s="1"/>
+      <c r="JJ1" s="1"/>
+      <c r="JK1" s="1"/>
+      <c r="JL1" s="1"/>
+      <c r="JM1" s="1"/>
+      <c r="JN1" s="1"/>
+      <c r="JO1" s="1"/>
+      <c r="JP1" s="1"/>
+      <c r="JQ1" s="1"/>
+      <c r="JR1" s="1"/>
+      <c r="JS1" s="1"/>
+      <c r="JT1" s="1"/>
+      <c r="JU1" s="1"/>
+      <c r="JV1" s="1"/>
+      <c r="JW1" s="1"/>
+      <c r="JX1" s="1"/>
     </row>
-    <row r="2" spans="1:185">
+    <row r="2" spans="1:284">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -827,319 +953,319 @@
         <v>16</v>
       </c>
       <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AB2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AC2" t="s">
         <v>4</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AD2" t="s">
         <v>5</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AE2" t="s">
         <v>6</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AF2" t="s">
         <v>7</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AG2" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AH2" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AI2" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AJ2" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AK2" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AL2" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AM2" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AN2" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AO2" t="s">
         <v>16</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY2" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AZ2" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="BA2" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="BB2" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="BC2" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="BD2" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="BE2" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="BF2" t="s">
         <v>9</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="BG2" t="s">
         <v>10</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="BH2" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="BI2" t="s">
         <v>12</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BJ2" t="s">
         <v>13</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>14</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>15</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW2" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BX2" t="s">
         <v>3</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BY2" t="s">
         <v>4</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BZ2" t="s">
         <v>5</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="CA2" t="s">
         <v>6</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="CB2" t="s">
         <v>7</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="CC2" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="CD2" t="s">
         <v>9</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="CE2" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="CF2" t="s">
         <v>11</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="CG2" t="s">
         <v>12</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="CH2" t="s">
         <v>13</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="CI2" t="s">
         <v>14</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="CJ2" t="s">
         <v>15</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="CK2" t="s">
         <v>16</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="CL2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>20</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>21</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>24</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>25</v>
+      </c>
+      <c r="CU2" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="CV2" t="s">
         <v>3</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="CW2" t="s">
         <v>4</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="CX2" t="s">
         <v>5</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CY2" t="s">
         <v>6</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CZ2" t="s">
         <v>7</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="DA2" t="s">
         <v>8</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="DB2" t="s">
         <v>9</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="DC2" t="s">
         <v>10</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="DD2" t="s">
         <v>11</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="DE2" t="s">
         <v>12</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="DF2" t="s">
         <v>13</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="DG2" t="s">
         <v>14</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="DH2" t="s">
         <v>15</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="DI2" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>6</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>10</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>11</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>15</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>16</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>6</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>8</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>9</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>10</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>11</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>3</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>4</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>6</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>7</v>
-      </c>
       <c r="DJ2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="DK2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="DL2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="DM2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="DN2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="DO2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="DP2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="DQ2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="DR2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="DS2" t="s">
         <v>2</v>
@@ -1187,151 +1313,448 @@
         <v>16</v>
       </c>
       <c r="EH2" t="s">
+        <v>17</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>18</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>19</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>20</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>22</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>23</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>24</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>25</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>2</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="ER2" t="s">
         <v>3</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="ES2" t="s">
         <v>4</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="ET2" t="s">
         <v>5</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EU2" t="s">
         <v>6</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EV2" t="s">
         <v>7</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EW2" t="s">
         <v>8</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="EX2" t="s">
         <v>9</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="EY2" t="s">
         <v>10</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="EZ2" t="s">
         <v>11</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="FA2" t="s">
         <v>12</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="FB2" t="s">
         <v>13</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="FC2" t="s">
         <v>14</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="FD2" t="s">
         <v>15</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="FE2" t="s">
         <v>16</v>
       </c>
-      <c r="EW2" t="s">
-        <v>27</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>28</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>29</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>30</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>31</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>32</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>33</v>
-      </c>
-      <c r="FD2" t="s">
+      <c r="FF2" t="s">
+        <v>17</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>18</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>19</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>20</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>21</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>22</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>23</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>24</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>25</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>3</v>
+      </c>
+      <c r="FQ2" t="s">
         <v>4</v>
       </c>
-      <c r="FE2" t="s">
-        <v>34</v>
-      </c>
-      <c r="FF2" t="s">
+      <c r="FR2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FS2" t="s">
         <v>6</v>
       </c>
-      <c r="FG2" t="s">
-        <v>35</v>
-      </c>
-      <c r="FH2" t="s">
+      <c r="FT2" t="s">
+        <v>7</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>8</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>9</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>10</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>11</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>12</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>13</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>14</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>15</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>16</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>17</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>18</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>19</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>20</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>21</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>22</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>23</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>24</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>25</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>2</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>3</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>4</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>5</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>8</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>9</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>10</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>11</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>12</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>13</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>14</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>15</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>16</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>17</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>18</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>19</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>20</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>21</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>22</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>24</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>25</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>2</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>3</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>4</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>5</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>9</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>10</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>11</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>12</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>14</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>15</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>16</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>17</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>18</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>19</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>20</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>21</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>22</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>23</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>24</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>25</v>
+      </c>
+      <c r="II2" t="s">
         <v>36</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="IJ2" t="s">
         <v>37</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="IK2" t="s">
         <v>38</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="IL2" t="s">
         <v>39</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="IM2" t="s">
         <v>40</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="IN2" t="s">
         <v>41</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="IO2" t="s">
+        <v>42</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>4</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>6</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>44</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>45</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>46</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>47</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>48</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>49</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>50</v>
+      </c>
+      <c r="IZ2" t="s">
         <v>9</v>
       </c>
-      <c r="FO2" t="s">
-        <v>42</v>
-      </c>
-      <c r="FP2" t="s">
+      <c r="JA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="JB2" t="s">
         <v>11</v>
       </c>
-      <c r="FQ2" t="s">
-        <v>43</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>44</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>45</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>46</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>47</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>48</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>49</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>50</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>51</v>
-      </c>
-      <c r="FZ2" t="s">
+      <c r="JC2" t="s">
         <v>52</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="JD2" t="s">
         <v>53</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="JE2" t="s">
         <v>54</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="JF2" t="s">
         <v>55</v>
       </c>
+      <c r="JG2" t="s">
+        <v>56</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>60</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>61</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>63</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>64</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>17</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>18</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>19</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>20</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>21</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>22</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>23</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>24</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:185">
+    <row r="3" spans="1:284">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1339,547 +1762,547 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>0.6287878787878788</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <v>29</v>
+      </c>
+      <c r="K3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L3">
+        <v>32</v>
+      </c>
+      <c r="M3">
+        <v>0.3712121212121213</v>
+      </c>
+      <c r="N3">
+        <v>22</v>
+      </c>
+      <c r="O3">
+        <v>12.77367083757315</v>
+      </c>
+      <c r="P3">
+        <v>23</v>
+      </c>
+      <c r="Q3">
+        <v>12.77367083757315</v>
+      </c>
+      <c r="AA3">
+        <v>44</v>
+      </c>
+      <c r="AB3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AC3">
+        <v>33</v>
+      </c>
+      <c r="AD3">
+        <v>0.8</v>
+      </c>
+      <c r="AE3">
+        <v>41</v>
+      </c>
+      <c r="AF3">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="AG3">
+        <v>0.2</v>
+      </c>
+      <c r="AH3">
+        <v>41</v>
+      </c>
+      <c r="AI3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AJ3">
+        <v>33</v>
+      </c>
+      <c r="AK3">
+        <v>0.3488372093023258</v>
+      </c>
+      <c r="AL3">
+        <v>23.5</v>
+      </c>
+      <c r="AM3">
+        <v>11.33026919362466</v>
+      </c>
+      <c r="AN3">
+        <v>20.5</v>
+      </c>
+      <c r="AO3">
+        <v>11.33026919362466</v>
+      </c>
+      <c r="AY3">
         <v>38</v>
       </c>
-      <c r="D3">
+      <c r="AZ3">
+        <v>0.5</v>
+      </c>
+      <c r="BA3">
+        <v>2</v>
+      </c>
+      <c r="BB3">
+        <v>0.8</v>
+      </c>
+      <c r="BC3">
+        <v>11</v>
+      </c>
+      <c r="BD3">
+        <v>0.6369369369369369</v>
+      </c>
+      <c r="BE3">
+        <v>0.2</v>
+      </c>
+      <c r="BF3">
+        <v>11</v>
+      </c>
+      <c r="BG3">
+        <v>0.5</v>
+      </c>
+      <c r="BH3">
+        <v>2</v>
+      </c>
+      <c r="BI3">
+        <v>0.3630630630630632</v>
+      </c>
+      <c r="BJ3">
+        <v>18.5</v>
+      </c>
+      <c r="BK3">
+        <v>10.75290658380328</v>
+      </c>
+      <c r="BL3">
+        <v>19.5</v>
+      </c>
+      <c r="BM3">
+        <v>10.75290658380328</v>
+      </c>
+      <c r="BW3">
+        <v>59</v>
+      </c>
+      <c r="BX3">
+        <v>0.5</v>
+      </c>
+      <c r="BY3">
+        <v>55</v>
+      </c>
+      <c r="BZ3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="CA3">
+        <v>12</v>
+      </c>
+      <c r="CB3">
+        <v>0.6402298850574712</v>
+      </c>
+      <c r="CC3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CD3">
+        <v>12</v>
+      </c>
+      <c r="CE3">
+        <v>0.5</v>
+      </c>
+      <c r="CF3">
+        <v>55</v>
+      </c>
+      <c r="CG3">
+        <v>0.3597701149425286</v>
+      </c>
+      <c r="CH3">
+        <v>30.5</v>
+      </c>
+      <c r="CI3">
+        <v>15.94913790773659</v>
+      </c>
+      <c r="CJ3">
+        <v>28.5</v>
+      </c>
+      <c r="CK3">
+        <v>15.94913790773659</v>
+      </c>
+      <c r="CU3">
+        <v>16</v>
+      </c>
+      <c r="CV3">
         <v>0.5333333333333333</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>28</v>
-      </c>
-      <c r="H3">
-        <v>0.6387387387387385</v>
-      </c>
-      <c r="I3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="J3">
-        <v>28</v>
-      </c>
-      <c r="K3">
+      <c r="CW3">
+        <v>1</v>
+      </c>
+      <c r="CX3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="CY3">
+        <v>12</v>
+      </c>
+      <c r="CZ3">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="DA3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="DB3">
+        <v>12</v>
+      </c>
+      <c r="DC3">
         <v>0.4666666666666667</v>
       </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>0.3612612612612615</v>
-      </c>
-      <c r="N3">
-        <v>18.5</v>
-      </c>
-      <c r="O3">
-        <v>10.75290658380328</v>
-      </c>
-      <c r="P3">
-        <v>19.5</v>
-      </c>
-      <c r="Q3">
-        <v>10.75290658380328</v>
-      </c>
-      <c r="R3">
-        <v>46</v>
-      </c>
-      <c r="S3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="T3">
-        <v>29</v>
-      </c>
-      <c r="U3">
-        <v>0.8</v>
-      </c>
-      <c r="V3">
-        <v>17</v>
-      </c>
-      <c r="W3">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="X3">
-        <v>0.2</v>
-      </c>
-      <c r="Y3">
-        <v>17</v>
-      </c>
-      <c r="Z3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="AA3">
-        <v>29</v>
-      </c>
-      <c r="AB3">
-        <v>0.3555555555555557</v>
-      </c>
-      <c r="AC3">
-        <v>23.5</v>
-      </c>
-      <c r="AD3">
-        <v>12.48499098918377</v>
-      </c>
-      <c r="AE3">
-        <v>22.5</v>
-      </c>
-      <c r="AF3">
-        <v>12.48499098918377</v>
-      </c>
-      <c r="AG3">
-        <v>89</v>
-      </c>
-      <c r="AH3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AI3">
-        <v>15</v>
-      </c>
-      <c r="AJ3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="AK3">
-        <v>25</v>
-      </c>
-      <c r="AL3">
-        <v>0.6428030303030304</v>
-      </c>
-      <c r="AM3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="AN3">
-        <v>25</v>
-      </c>
-      <c r="AO3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="AP3">
-        <v>15</v>
-      </c>
-      <c r="AQ3">
-        <v>0.3571969696969697</v>
-      </c>
-      <c r="AR3">
-        <v>44.5</v>
-      </c>
-      <c r="AS3">
-        <v>25.18680209951236</v>
-      </c>
-      <c r="AT3">
-        <v>44.5</v>
-      </c>
-      <c r="AU3">
-        <v>25.18680209951236</v>
-      </c>
-      <c r="AV3">
-        <v>89</v>
-      </c>
-      <c r="AW3">
-        <v>0.5</v>
-      </c>
-      <c r="AX3">
-        <v>81</v>
-      </c>
-      <c r="AY3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="AZ3">
-        <v>16</v>
-      </c>
-      <c r="BA3">
-        <v>0.628787878787879</v>
-      </c>
-      <c r="BB3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="BC3">
-        <v>16</v>
-      </c>
-      <c r="BD3">
-        <v>0.5</v>
-      </c>
-      <c r="BE3">
-        <v>81</v>
-      </c>
-      <c r="BF3">
-        <v>0.371212121212121</v>
-      </c>
-      <c r="BG3">
-        <v>44.5</v>
-      </c>
-      <c r="BH3">
-        <v>25.18680209951236</v>
-      </c>
-      <c r="BI3">
-        <v>44.5</v>
-      </c>
-      <c r="BJ3">
-        <v>25.18680209951236</v>
-      </c>
-      <c r="BK3">
-        <v>32</v>
-      </c>
-      <c r="BL3">
-        <v>0.5</v>
-      </c>
-      <c r="BM3">
-        <v>5</v>
-      </c>
-      <c r="BN3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="BO3">
-        <v>6</v>
-      </c>
-      <c r="BP3">
-        <v>0.6225806451612902</v>
-      </c>
-      <c r="BQ3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="BR3">
-        <v>6</v>
-      </c>
-      <c r="BS3">
-        <v>0.5</v>
-      </c>
-      <c r="BT3">
-        <v>5</v>
-      </c>
-      <c r="BU3">
-        <v>0.3774193548387098</v>
-      </c>
-      <c r="BV3">
-        <v>15.5</v>
-      </c>
-      <c r="BW3">
-        <v>9.020809276334358</v>
-      </c>
-      <c r="BX3">
-        <v>16.5</v>
-      </c>
-      <c r="BY3">
-        <v>9.020809276334358</v>
-      </c>
-      <c r="BZ3">
-        <v>33</v>
-      </c>
-      <c r="CA3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="CB3">
-        <v>6</v>
-      </c>
-      <c r="CC3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="CD3">
+      <c r="DD3">
+        <v>1</v>
+      </c>
+      <c r="DE3">
+        <v>0.3599999999999999</v>
+      </c>
+      <c r="DF3">
         <v>8</v>
       </c>
-      <c r="CE3">
-        <v>0.6385416666666663</v>
-      </c>
-      <c r="CF3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="CG3">
+      <c r="DG3">
+        <v>4.112987559751022</v>
+      </c>
+      <c r="DH3">
         <v>8</v>
       </c>
-      <c r="CH3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="CI3">
-        <v>6</v>
-      </c>
-      <c r="CJ3">
-        <v>0.3614583333333335</v>
-      </c>
-      <c r="CK3">
-        <v>19</v>
-      </c>
-      <c r="CL3">
-        <v>7.577378614446204</v>
-      </c>
-      <c r="CM3">
-        <v>14</v>
-      </c>
-      <c r="CN3">
-        <v>7.577378614446204</v>
-      </c>
-      <c r="CO3">
-        <v>35</v>
-      </c>
-      <c r="CP3">
-        <v>0.5</v>
-      </c>
-      <c r="CQ3">
-        <v>28</v>
-      </c>
-      <c r="CR3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="CS3">
-        <v>22</v>
-      </c>
-      <c r="CT3">
-        <v>0.6490196078431372</v>
-      </c>
-      <c r="CU3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="CV3">
-        <v>22</v>
-      </c>
-      <c r="CW3">
-        <v>0.5</v>
-      </c>
-      <c r="CX3">
-        <v>28</v>
-      </c>
-      <c r="CY3">
-        <v>0.3509803921568628</v>
-      </c>
-      <c r="CZ3">
-        <v>20</v>
-      </c>
-      <c r="DA3">
-        <v>8.154753215150047</v>
-      </c>
-      <c r="DB3">
-        <v>15</v>
-      </c>
-      <c r="DC3">
-        <v>8.154753215150047</v>
-      </c>
-      <c r="DD3">
-        <v>34</v>
-      </c>
-      <c r="DE3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="DF3">
-        <v>26</v>
-      </c>
-      <c r="DG3">
-        <v>0.8</v>
-      </c>
-      <c r="DH3">
-        <v>7</v>
-      </c>
       <c r="DI3">
-        <v>0.6505050505050506</v>
-      </c>
-      <c r="DJ3">
-        <v>0.2</v>
-      </c>
-      <c r="DK3">
-        <v>7</v>
-      </c>
-      <c r="DL3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="DM3">
-        <v>26</v>
-      </c>
-      <c r="DN3">
-        <v>0.3494949494949496</v>
-      </c>
-      <c r="DO3">
-        <v>16.5</v>
-      </c>
-      <c r="DP3">
-        <v>9.598176910226233</v>
-      </c>
-      <c r="DQ3">
-        <v>17.5</v>
-      </c>
-      <c r="DR3">
-        <v>9.598176910226233</v>
+        <v>4.112987559751022</v>
       </c>
       <c r="DS3">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="DT3">
         <v>0.5</v>
       </c>
       <c r="DU3">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="DV3">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="DW3">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="DX3">
-        <v>0.6402777777777778</v>
+        <v>0.6336182336182339</v>
       </c>
       <c r="DY3">
-        <v>0.2666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="DZ3">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="EA3">
         <v>0.5</v>
       </c>
       <c r="EB3">
+        <v>56</v>
+      </c>
+      <c r="EC3">
+        <v>0.3663817663817664</v>
+      </c>
+      <c r="ED3">
+        <v>117</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>1</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EQ3">
+        <v>25</v>
+      </c>
+      <c r="ER3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="ES3">
+        <v>0</v>
+      </c>
+      <c r="ET3">
+        <v>0.8</v>
+      </c>
+      <c r="EU3">
+        <v>24</v>
+      </c>
+      <c r="EV3">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="EW3">
+        <v>0.2</v>
+      </c>
+      <c r="EX3">
+        <v>24</v>
+      </c>
+      <c r="EY3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0.35</v>
+      </c>
+      <c r="FB3">
+        <v>13</v>
+      </c>
+      <c r="FC3">
+        <v>6.422616289332564</v>
+      </c>
+      <c r="FD3">
         <v>12</v>
       </c>
-      <c r="EC3">
-        <v>0.3597222222222222</v>
-      </c>
-      <c r="ED3">
-        <v>13</v>
-      </c>
-      <c r="EE3">
+      <c r="FE3">
         <v>6.422616289332564</v>
       </c>
-      <c r="EF3">
+      <c r="FO3">
+        <v>29</v>
+      </c>
+      <c r="FP3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="FQ3">
+        <v>9</v>
+      </c>
+      <c r="FR3">
+        <v>0.8</v>
+      </c>
+      <c r="FS3">
+        <v>19</v>
+      </c>
+      <c r="FT3">
+        <v>0.65</v>
+      </c>
+      <c r="FU3">
+        <v>0.2</v>
+      </c>
+      <c r="FV3">
+        <v>19</v>
+      </c>
+      <c r="FW3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="FX3">
+        <v>9</v>
+      </c>
+      <c r="FY3">
+        <v>0.35</v>
+      </c>
+      <c r="FZ3">
+        <v>28</v>
+      </c>
+      <c r="GA3">
+        <v>0</v>
+      </c>
+      <c r="GB3">
+        <v>1</v>
+      </c>
+      <c r="GC3">
+        <v>0</v>
+      </c>
+      <c r="GM3">
+        <v>18</v>
+      </c>
+      <c r="GN3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="GO3">
+        <v>0</v>
+      </c>
+      <c r="GP3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="GQ3">
         <v>12</v>
       </c>
-      <c r="EG3">
-        <v>6.422616289332564</v>
-      </c>
-      <c r="EH3">
-        <v>60</v>
-      </c>
-      <c r="EI3">
-        <v>0.5</v>
-      </c>
-      <c r="EJ3">
+      <c r="GR3">
+        <v>0.6254901960784311</v>
+      </c>
+      <c r="GS3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="GT3">
+        <v>12</v>
+      </c>
+      <c r="GU3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="GV3">
+        <v>0</v>
+      </c>
+      <c r="GW3">
+        <v>0.3745098039215686</v>
+      </c>
+      <c r="GX3">
         <v>11</v>
       </c>
-      <c r="EK3">
+      <c r="GY3">
+        <v>3.535533905932737</v>
+      </c>
+      <c r="GZ3">
+        <v>7</v>
+      </c>
+      <c r="HA3">
+        <v>3.535533905932737</v>
+      </c>
+      <c r="HK3">
+        <v>41</v>
+      </c>
+      <c r="HL3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="HM3">
+        <v>0</v>
+      </c>
+      <c r="HN3">
         <v>0.7333333333333333</v>
       </c>
-      <c r="EL3">
+      <c r="HO3">
+        <v>8</v>
+      </c>
+      <c r="HP3">
+        <v>0.6516666666666665</v>
+      </c>
+      <c r="HQ3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="HR3">
+        <v>8</v>
+      </c>
+      <c r="HS3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="HT3">
+        <v>0</v>
+      </c>
+      <c r="HU3">
+        <v>0.3483333333333336</v>
+      </c>
+      <c r="HV3">
+        <v>20</v>
+      </c>
+      <c r="HW3">
+        <v>11.61895003862225</v>
+      </c>
+      <c r="HX3">
+        <v>21</v>
+      </c>
+      <c r="HY3">
+        <v>11.61895003862225</v>
+      </c>
+      <c r="II3">
+        <v>1</v>
+      </c>
+      <c r="IJ3">
         <v>10</v>
       </c>
-      <c r="EM3">
-        <v>0.6282485875706215</v>
-      </c>
-      <c r="EN3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="EO3">
-        <v>10</v>
-      </c>
-      <c r="EP3">
-        <v>0.5</v>
-      </c>
-      <c r="EQ3">
-        <v>11</v>
-      </c>
-      <c r="ER3">
-        <v>0.3717514124293785</v>
-      </c>
-      <c r="ES3">
-        <v>50</v>
-      </c>
-      <c r="ET3">
-        <v>5.267826876426369</v>
-      </c>
-      <c r="EU3">
-        <v>10</v>
-      </c>
-      <c r="EV3">
-        <v>5.267826876426369</v>
-      </c>
-      <c r="EW3">
-        <v>1</v>
-      </c>
-      <c r="EX3">
-        <v>10</v>
-      </c>
-      <c r="EY3">
-        <v>25</v>
-      </c>
-      <c r="EZ3">
-        <v>89</v>
-      </c>
-      <c r="FA3">
-        <v>48.1</v>
-      </c>
-      <c r="FB3">
-        <v>22.3268896176785</v>
-      </c>
-      <c r="FC3">
-        <v>0.5</v>
-      </c>
-      <c r="FD3">
-        <v>81</v>
-      </c>
-      <c r="FE3">
-        <v>0.8</v>
-      </c>
-      <c r="FF3">
-        <v>17</v>
-      </c>
-      <c r="FG3">
-        <v>0.5166666666666666</v>
-      </c>
-      <c r="FH3">
-        <v>0.7533333333333333</v>
-      </c>
-      <c r="FI3">
-        <v>0.6383947427798635</v>
-      </c>
-      <c r="FJ3">
-        <v>0.01666666666666666</v>
-      </c>
-      <c r="FK3">
-        <v>0.02666666666666671</v>
-      </c>
-      <c r="FL3">
-        <v>0.008744066132873943</v>
-      </c>
-      <c r="FM3">
-        <v>0.2</v>
-      </c>
-      <c r="FN3">
-        <v>17</v>
-      </c>
-      <c r="FO3">
-        <v>0.5</v>
-      </c>
-      <c r="FP3">
-        <v>81</v>
-      </c>
-      <c r="FQ3">
-        <v>0.2466666666666667</v>
-      </c>
-      <c r="FR3">
-        <v>0.4833333333333333</v>
-      </c>
-      <c r="FS3">
-        <v>0.3616052572201364</v>
-      </c>
-      <c r="FT3">
-        <v>0.02666666666666666</v>
-      </c>
-      <c r="FU3">
-        <v>0.01666666666666666</v>
-      </c>
-      <c r="FV3">
-        <v>0.008744066132873905</v>
+      <c r="IK3">
+        <v>16</v>
+      </c>
+      <c r="IL3">
+        <v>118</v>
+      </c>
+      <c r="IM3">
+        <v>43.3</v>
+      </c>
+      <c r="IN3">
+        <v>27.90716753810748</v>
+      </c>
+      <c r="IO3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="IP3">
+        <v>32</v>
+      </c>
+      <c r="IQ3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="IR3">
+        <v>12</v>
+      </c>
+      <c r="IS3">
+        <v>0.5133333333333333</v>
+      </c>
+      <c r="IT3">
+        <v>0.7833333333333334</v>
+      </c>
+      <c r="IU3">
+        <v>0.6407892587843292</v>
+      </c>
+      <c r="IV3">
+        <v>0.03055050463303893</v>
+      </c>
+      <c r="IW3">
+        <v>0.03073181485764299</v>
+      </c>
+      <c r="IX3">
+        <v>0.009170048688648527</v>
+      </c>
+      <c r="IY3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="IZ3">
+        <v>12</v>
+      </c>
+      <c r="JA3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="JB3">
+        <v>32</v>
+      </c>
+      <c r="JC3">
+        <v>0.2166666666666666</v>
+      </c>
+      <c r="JD3">
+        <v>0.4866666666666666</v>
+      </c>
+      <c r="JE3">
+        <v>0.3592107412156708</v>
+      </c>
+      <c r="JF3">
+        <v>0.03073181485764296</v>
+      </c>
+      <c r="JG3">
+        <v>0.03055050463303893</v>
+      </c>
+      <c r="JH3">
+        <v>0.009170048688648508</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:Q1"/>
-    <mergeCell ref="R1:AF1"/>
-    <mergeCell ref="AG1:AU1"/>
-    <mergeCell ref="AV1:BJ1"/>
-    <mergeCell ref="BK1:BY1"/>
-    <mergeCell ref="BZ1:CN1"/>
-    <mergeCell ref="CO1:DC1"/>
-    <mergeCell ref="DD1:DR1"/>
-    <mergeCell ref="DS1:EG1"/>
-    <mergeCell ref="EH1:EV1"/>
-    <mergeCell ref="EW1:GC1"/>
+    <mergeCell ref="C1:Z1"/>
+    <mergeCell ref="AA1:AX1"/>
+    <mergeCell ref="AY1:BV1"/>
+    <mergeCell ref="BW1:CT1"/>
+    <mergeCell ref="CU1:DR1"/>
+    <mergeCell ref="DS1:EP1"/>
+    <mergeCell ref="EQ1:FN1"/>
+    <mergeCell ref="FO1:GL1"/>
+    <mergeCell ref="GM1:HJ1"/>
+    <mergeCell ref="HK1:IH1"/>
+    <mergeCell ref="II1:JX1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/FconstALL/FconstALL_30.xlsx
+++ b/out_test/tables/FconstALL/FconstALL_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="88">
   <si>
     <t>RWS</t>
   </si>
@@ -209,6 +209,66 @@
   </si>
   <si>
     <t>nonMax_F_found</t>
+  </si>
+  <si>
+    <t>Min_I_start</t>
+  </si>
+  <si>
+    <t>Max_I_start</t>
+  </si>
+  <si>
+    <t>Avg_I_start</t>
+  </si>
+  <si>
+    <t>Sigma_I_start</t>
+  </si>
+  <si>
+    <t>Min_GR_start</t>
+  </si>
+  <si>
+    <t>Max_GR_start</t>
+  </si>
+  <si>
+    <t>Avg_GR_start</t>
+  </si>
+  <si>
+    <t>Sigma_GR_start</t>
+  </si>
+  <si>
+    <t>Min_Pr_min</t>
+  </si>
+  <si>
+    <t>Max_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_min</t>
+  </si>
+  <si>
+    <t>Avg_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_avg</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_min</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_max</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_avg</t>
+  </si>
+  <si>
+    <t>Min_Pr_start</t>
+  </si>
+  <si>
+    <t>Max_Pr_start</t>
+  </si>
+  <si>
+    <t>Avg_Pr_start</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_start</t>
   </si>
   <si>
     <t>Aggregated</t>
@@ -581,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:JX3"/>
+  <dimension ref="A1:KT3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -592,12 +652,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:284">
+    <row r="1" spans="1:306">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -860,7 +920,7 @@
       <c r="IG1" s="1"/>
       <c r="IH1" s="1"/>
       <c r="II1" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="IJ1" s="1"/>
       <c r="IK1" s="1"/>
@@ -903,8 +963,30 @@
       <c r="JV1" s="1"/>
       <c r="JW1" s="1"/>
       <c r="JX1" s="1"/>
+      <c r="JY1" s="1"/>
+      <c r="JZ1" s="1"/>
+      <c r="KA1" s="1"/>
+      <c r="KB1" s="1"/>
+      <c r="KC1" s="1"/>
+      <c r="KD1" s="1"/>
+      <c r="KE1" s="1"/>
+      <c r="KF1" s="1"/>
+      <c r="KG1" s="1"/>
+      <c r="KH1" s="1"/>
+      <c r="KI1" s="1"/>
+      <c r="KJ1" s="1"/>
+      <c r="KK1" s="1"/>
+      <c r="KL1" s="1"/>
+      <c r="KM1" s="1"/>
+      <c r="KN1" s="1"/>
+      <c r="KO1" s="1"/>
+      <c r="KP1" s="1"/>
+      <c r="KQ1" s="1"/>
+      <c r="KR1" s="1"/>
+      <c r="KS1" s="1"/>
+      <c r="KT1" s="1"/>
     </row>
-    <row r="2" spans="1:284">
+    <row r="2" spans="1:306">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1753,8 +1835,74 @@
       <c r="JX2" t="s">
         <v>25</v>
       </c>
+      <c r="JY2" t="s">
+        <v>65</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>67</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>68</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>69</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>70</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>72</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>73</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>21</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>74</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>23</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>75</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>76</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>77</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>78</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>79</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>80</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>81</v>
+      </c>
+      <c r="KR2" t="s">
+        <v>82</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>83</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="3" spans="1:284">
+    <row r="3" spans="1:306">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1762,265 +1910,265 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>0.6432098765432096</v>
+      </c>
+      <c r="I3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
         <v>0.4666666666666667</v>
       </c>
-      <c r="E3">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>0.8</v>
-      </c>
-      <c r="G3">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>0.6287878787878788</v>
-      </c>
-      <c r="I3">
-        <v>0.2</v>
-      </c>
-      <c r="J3">
-        <v>29</v>
-      </c>
-      <c r="K3">
-        <v>0.5333333333333333</v>
-      </c>
       <c r="L3">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>0.3712121212121213</v>
+        <v>0.3567901234567901</v>
       </c>
       <c r="N3">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="O3">
-        <v>12.77367083757315</v>
+        <v>7.866066361276137</v>
       </c>
       <c r="P3">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="Q3">
-        <v>12.77367083757315</v>
+        <v>7.866066361276137</v>
       </c>
       <c r="AA3">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AB3">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="AC3">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="AD3">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="AE3">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AF3">
-        <v>0.6511627906976744</v>
+        <v>0.6245283018867926</v>
       </c>
       <c r="AG3">
-        <v>0.2</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="AH3">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AI3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AJ3">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="AK3">
-        <v>0.3488372093023258</v>
+        <v>0.3754716981132076</v>
       </c>
       <c r="AL3">
+        <v>30.5</v>
+      </c>
+      <c r="AM3">
+        <v>13.06235047761313</v>
+      </c>
+      <c r="AN3">
         <v>23.5</v>
       </c>
-      <c r="AM3">
-        <v>11.33026919362466</v>
-      </c>
-      <c r="AN3">
-        <v>20.5</v>
-      </c>
       <c r="AO3">
-        <v>11.33026919362466</v>
+        <v>13.06235047761313</v>
       </c>
       <c r="AY3">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AZ3">
         <v>0.5</v>
       </c>
       <c r="BA3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BB3">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="BC3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD3">
-        <v>0.6369369369369369</v>
+        <v>0.6319148936170215</v>
       </c>
       <c r="BE3">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="BF3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BG3">
         <v>0.5</v>
       </c>
       <c r="BH3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BI3">
-        <v>0.3630630630630632</v>
+        <v>0.368085106382979</v>
       </c>
       <c r="BJ3">
-        <v>18.5</v>
+        <v>23.5</v>
       </c>
       <c r="BK3">
-        <v>10.75290658380328</v>
+        <v>13.63970918556062</v>
       </c>
       <c r="BL3">
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="BM3">
-        <v>10.75290658380328</v>
+        <v>13.63970918556062</v>
       </c>
       <c r="BW3">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="BX3">
         <v>0.5</v>
       </c>
       <c r="BY3">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="BZ3">
-        <v>0.8333333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="CA3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB3">
-        <v>0.6402298850574712</v>
+        <v>0.6304761904761904</v>
       </c>
       <c r="CC3">
-        <v>0.1666666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="CD3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CE3">
         <v>0.5</v>
       </c>
       <c r="CF3">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="CG3">
-        <v>0.3597701149425286</v>
+        <v>0.3695238095238096</v>
       </c>
       <c r="CH3">
-        <v>30.5</v>
+        <v>17.5</v>
       </c>
       <c r="CI3">
-        <v>15.94913790773659</v>
+        <v>10.17554257357644</v>
       </c>
       <c r="CJ3">
-        <v>28.5</v>
+        <v>18.5</v>
       </c>
       <c r="CK3">
-        <v>15.94913790773659</v>
+        <v>10.17554257357644</v>
       </c>
       <c r="CU3">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="CV3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="CW3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="CX3">
         <v>0.7666666666666667</v>
       </c>
       <c r="CY3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="CZ3">
-        <v>0.6399999999999999</v>
+        <v>0.6466666666666671</v>
       </c>
       <c r="DA3">
         <v>0.2333333333333333</v>
       </c>
       <c r="DB3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="DC3">
+        <v>0.5</v>
+      </c>
+      <c r="DD3">
+        <v>20</v>
+      </c>
+      <c r="DE3">
+        <v>0.3533333333333333</v>
+      </c>
+      <c r="DF3">
+        <v>43</v>
+      </c>
+      <c r="DG3">
+        <v>12.77367083757315</v>
+      </c>
+      <c r="DH3">
+        <v>23</v>
+      </c>
+      <c r="DI3">
+        <v>12.77367083757315</v>
+      </c>
+      <c r="DS3">
+        <v>32</v>
+      </c>
+      <c r="DT3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="DU3">
+        <v>6</v>
+      </c>
+      <c r="DV3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="DW3">
+        <v>7</v>
+      </c>
+      <c r="DX3">
+        <v>0.6494623655913978</v>
+      </c>
+      <c r="DY3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="DZ3">
+        <v>7</v>
+      </c>
+      <c r="EA3">
         <v>0.4666666666666667</v>
       </c>
-      <c r="DD3">
-        <v>1</v>
-      </c>
-      <c r="DE3">
-        <v>0.3599999999999999</v>
-      </c>
-      <c r="DF3">
-        <v>8</v>
-      </c>
-      <c r="DG3">
-        <v>4.112987559751022</v>
-      </c>
-      <c r="DH3">
-        <v>8</v>
-      </c>
-      <c r="DI3">
-        <v>4.112987559751022</v>
-      </c>
-      <c r="DS3">
-        <v>118</v>
-      </c>
-      <c r="DT3">
-        <v>0.5</v>
-      </c>
-      <c r="DU3">
-        <v>56</v>
-      </c>
-      <c r="DV3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="DW3">
-        <v>66</v>
-      </c>
-      <c r="DX3">
-        <v>0.6336182336182339</v>
-      </c>
-      <c r="DY3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="DZ3">
-        <v>66</v>
-      </c>
-      <c r="EA3">
-        <v>0.5</v>
-      </c>
       <c r="EB3">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="EC3">
-        <v>0.3663817663817664</v>
+        <v>0.3505376344086021</v>
       </c>
       <c r="ED3">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2032,184 +2180,184 @@
         <v>0</v>
       </c>
       <c r="EQ3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="ER3">
         <v>0.5333333333333333</v>
       </c>
       <c r="ES3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="ET3">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="EU3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="EV3">
-        <v>0.6499999999999999</v>
+        <v>0.6453333333333333</v>
       </c>
       <c r="EW3">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="EX3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="EY3">
         <v>0.4666666666666667</v>
       </c>
       <c r="EZ3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FA3">
-        <v>0.35</v>
+        <v>0.3546666666666666</v>
       </c>
       <c r="FB3">
         <v>13</v>
       </c>
       <c r="FC3">
-        <v>6.422616289332564</v>
+        <v>7</v>
       </c>
       <c r="FD3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="FE3">
-        <v>6.422616289332564</v>
+        <v>7</v>
       </c>
       <c r="FO3">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="FP3">
         <v>0.5333333333333333</v>
       </c>
       <c r="FQ3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="FR3">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="FS3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="FT3">
-        <v>0.65</v>
+        <v>0.6444444444444446</v>
       </c>
       <c r="FU3">
-        <v>0.2</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="FV3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="FW3">
         <v>0.4666666666666667</v>
       </c>
       <c r="FX3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="FY3">
-        <v>0.35</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="FZ3">
-        <v>28</v>
+        <v>23.5</v>
       </c>
       <c r="GA3">
-        <v>0</v>
+        <v>12.48499098918377</v>
       </c>
       <c r="GB3">
-        <v>1</v>
+        <v>22.5</v>
       </c>
       <c r="GC3">
-        <v>0</v>
+        <v>12.48499098918377</v>
       </c>
       <c r="GM3">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="GN3">
-        <v>0.5666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="GO3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="GP3">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="GQ3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="GR3">
-        <v>0.6254901960784311</v>
+        <v>0.6427983539094652</v>
       </c>
       <c r="GS3">
-        <v>0.2666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="GT3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="GU3">
-        <v>0.4333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="GV3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="GW3">
-        <v>0.3745098039215686</v>
+        <v>0.357201646090535</v>
       </c>
       <c r="GX3">
-        <v>11</v>
+        <v>49.5</v>
       </c>
       <c r="GY3">
-        <v>3.535533905932737</v>
+        <v>18.25855963651022</v>
       </c>
       <c r="GZ3">
-        <v>7</v>
+        <v>32.5</v>
       </c>
       <c r="HA3">
-        <v>3.535533905932737</v>
+        <v>18.25855963651022</v>
       </c>
       <c r="HK3">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="HL3">
         <v>0.5333333333333333</v>
       </c>
       <c r="HM3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="HN3">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="HO3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="HP3">
-        <v>0.6516666666666665</v>
+        <v>0.6379928315412187</v>
       </c>
       <c r="HQ3">
-        <v>0.2666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="HR3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="HS3">
         <v>0.4666666666666667</v>
       </c>
       <c r="HT3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="HU3">
-        <v>0.3483333333333336</v>
+        <v>0.3620071684587813</v>
       </c>
       <c r="HV3">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="HW3">
-        <v>11.61895003862225</v>
+        <v>26.05283094022606</v>
       </c>
       <c r="HX3">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="HY3">
-        <v>11.61895003862225</v>
+        <v>26.05283094022606</v>
       </c>
       <c r="II3">
         <v>1</v>
@@ -2218,76 +2366,76 @@
         <v>10</v>
       </c>
       <c r="IK3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="IL3">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="IM3">
-        <v>43.3</v>
+        <v>51.2</v>
       </c>
       <c r="IN3">
-        <v>27.90716753810748</v>
+        <v>21.94903186931032</v>
       </c>
       <c r="IO3">
         <v>0.4666666666666667</v>
       </c>
       <c r="IP3">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="IQ3">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="IR3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="IS3">
         <v>0.5133333333333333</v>
       </c>
       <c r="IT3">
-        <v>0.7833333333333334</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="IU3">
-        <v>0.6407892587843292</v>
+        <v>0.6396827258009741</v>
       </c>
       <c r="IV3">
-        <v>0.03055050463303893</v>
+        <v>0.02211083193570266</v>
       </c>
       <c r="IW3">
-        <v>0.03073181485764299</v>
+        <v>0.02211083193570271</v>
       </c>
       <c r="IX3">
-        <v>0.009170048688648527</v>
+        <v>0.007738086724401227</v>
       </c>
       <c r="IY3">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="IZ3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="JA3">
         <v>0.5333333333333333</v>
       </c>
       <c r="JB3">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="JC3">
-        <v>0.2166666666666666</v>
+        <v>0.2466666666666667</v>
       </c>
       <c r="JD3">
-        <v>0.4866666666666666</v>
+        <v>0.4866666666666667</v>
       </c>
       <c r="JE3">
-        <v>0.3592107412156708</v>
+        <v>0.360317274199026</v>
       </c>
       <c r="JF3">
-        <v>0.03073181485764296</v>
+        <v>0.02211083193570266</v>
       </c>
       <c r="JG3">
-        <v>0.03055050463303893</v>
+        <v>0.02211083193570266</v>
       </c>
       <c r="JH3">
-        <v>0.009170048688648508</v>
+        <v>0.007738086724401293</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2450,7 @@
     <mergeCell ref="FO1:GL1"/>
     <mergeCell ref="GM1:HJ1"/>
     <mergeCell ref="HK1:IH1"/>
-    <mergeCell ref="II1:JX1"/>
+    <mergeCell ref="II1:KT1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
